--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,23 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Fourier\CFGI UiPath Nontransactional Framework Template\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robtireleo\Documents\RECO1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
-    <sheet name="Constants" sheetId="2" r:id="rId2"/>
-    <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Desplegable" sheetId="4" r:id="rId2"/>
+    <sheet name="Constants" sheetId="2" r:id="rId3"/>
+    <sheet name="Assets" sheetId="3" r:id="rId4"/>
+    <sheet name="Credentials" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -101,20 +103,269 @@
     <t>Maximum number of times the process will be retried before ending</t>
   </si>
   <si>
-    <t>Process Name Here</t>
-  </si>
-  <si>
     <t>MaxInitRetryNumber</t>
   </si>
   <si>
     <t>Maximum number of times the process will be retried in the init</t>
+  </si>
+  <si>
+    <t>vStrPathLogs</t>
+  </si>
+  <si>
+    <t>Recaudos</t>
+  </si>
+  <si>
+    <t>vStrPathCORG</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\CORG\</t>
+  </si>
+  <si>
+    <t>vStrRutaSinIdentificar</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\Sin Identificar\</t>
+  </si>
+  <si>
+    <t>vStrFormatoSinIdentificar</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\Formatos\SinIdentificar.xlsx</t>
+  </si>
+  <si>
+    <t>vStrRutaMultiCash</t>
+  </si>
+  <si>
+    <t>O:\DISSEN\INSUMOS ROBOT RECAUDOS LEONISA\Multi Cash\</t>
+  </si>
+  <si>
+    <t>vStrRutaBancosOrganizados</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\Bancos completos\</t>
+  </si>
+  <si>
+    <t>vStrMaestraClientes</t>
+  </si>
+  <si>
+    <t>vStrRutaGROP</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\GROP\</t>
+  </si>
+  <si>
+    <t>vStrFormatoBancos</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\Formatos\Formato.xlsx</t>
+  </si>
+  <si>
+    <t>vstrAssetMesBancos</t>
+  </si>
+  <si>
+    <t>MesBancos</t>
+  </si>
+  <si>
+    <t>vStrNombreRobot</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\Logs</t>
+  </si>
+  <si>
+    <t>Ruta para ejecución de EPICOR</t>
+  </si>
+  <si>
+    <t>vStrPathEpicor</t>
+  </si>
+  <si>
+    <t>TargetEpicor</t>
+  </si>
+  <si>
+    <t>CredEpicor</t>
+  </si>
+  <si>
+    <t>Target de Credenciales de EPICOR</t>
+  </si>
+  <si>
+    <t>Kill</t>
+  </si>
+  <si>
+    <t>EXCEL,EjecutarEpicorLeo,Epicor</t>
+  </si>
+  <si>
+    <t>Procesos a Matar</t>
+  </si>
+  <si>
+    <t>vStrOpcionAccesoCartera</t>
+  </si>
+  <si>
+    <t>Query Cash Age Invoice Leo</t>
+  </si>
+  <si>
+    <t>vStrRutaCartera</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\Cartera.xlsx</t>
+  </si>
+  <si>
+    <t>O:\DISSEN\INSUMOS ROBOT RECAUDOS LEONISA\Maestra Clientes Cia 81- Plazos y Descuentos.xlsx</t>
+  </si>
+  <si>
+    <t>Carpeta CORG</t>
+  </si>
+  <si>
+    <t>Carpeta para pagos sin identificar</t>
+  </si>
+  <si>
+    <t>Archivo sin identificar</t>
+  </si>
+  <si>
+    <t>Ruta donde se ingresan archivos organizados de banco</t>
+  </si>
+  <si>
+    <t>Archivo de maestra de clientes</t>
+  </si>
+  <si>
+    <t>Carpeta GROP</t>
+  </si>
+  <si>
+    <t>Archivo formato para bancos</t>
+  </si>
+  <si>
+    <t>Archivo cartera que crea el robot</t>
+  </si>
+  <si>
+    <t>vStrCorreoRobot</t>
+  </si>
+  <si>
+    <t>karen@fouriering.com</t>
+  </si>
+  <si>
+    <t>vStrCorreoNotificacionBancos</t>
+  </si>
+  <si>
+    <t>vStrEndPoint</t>
+  </si>
+  <si>
+    <t>http://10.1.22.7/MessengerServices/rest/email/sendMultipleEmailStreamAttachment</t>
+  </si>
+  <si>
+    <t>vStrUserNameAPI</t>
+  </si>
+  <si>
+    <t>vStrPasswordAPI</t>
+  </si>
+  <si>
+    <t>MessengerServiceUser</t>
+  </si>
+  <si>
+    <t>4uth0r1V03S3rzv</t>
+  </si>
+  <si>
+    <t>vStrFormatoCartera</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\Formatos\Cartera.xlsx</t>
+  </si>
+  <si>
+    <t>vStrRutaVINC</t>
+  </si>
+  <si>
+    <t>vStrRutaPREP</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\VINC\</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\PREP\</t>
+  </si>
+  <si>
+    <t>Carpeta VINC</t>
+  </si>
+  <si>
+    <t>Carpeta PREP</t>
+  </si>
+  <si>
+    <t>vStrGralBancosMes</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\Formatos\BancosMes.xlsx</t>
+  </si>
+  <si>
+    <t>Formato archivo general de bancos</t>
+  </si>
+  <si>
+    <t>Formato de archivo interno cartera de clientes</t>
+  </si>
+  <si>
+    <t>Contraseña de la API</t>
+  </si>
+  <si>
+    <t>correo del robot</t>
+  </si>
+  <si>
+    <t>Correo responsable notificaciones prblemas en informacion bancaria</t>
+  </si>
+  <si>
+    <t>Ruta donde el robot dejará logs de funcionamiento</t>
+  </si>
+  <si>
+    <t>Nombre del robot</t>
+  </si>
+  <si>
+    <t>Archivo interno que genera el robot con informacion de cartera al dia</t>
+  </si>
+  <si>
+    <t>"C:\Users\robtireleo\AppData\Local\Apps\2.0\Y2NOOAW5.LBG\4N7MK0XB.70G\ejec..tion_0a8a34db63dae999_0001.0000_dfe84431c0728486\EjecutarEpicorLeo.exe"</t>
+  </si>
+  <si>
+    <t>O:\DISSEN\INSUMOS ROBOT RECAUDOS LEONISA\VINC\</t>
+  </si>
+  <si>
+    <t>O:\DISSEN\INSUMOS ROBOT RECAUDOS LEONISA\PREP\</t>
+  </si>
+  <si>
+    <t>O:\DISSEN\INSUMOS ROBOT RECAUDOS LEONISA\CORG\</t>
+  </si>
+  <si>
+    <t>O:\DISSEN\INSUMOS ROBOT RECAUDOS LEONISA\GROP\</t>
+  </si>
+  <si>
+    <t>O:\DISSEN\INSUMOS ROBOT RECAUDOS LEONISA\Bancos Organizado\</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>Produccion</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>O:\DISSEN\INSUMOS ROBOT RECAUDOS LEONISA\Sin Identificar\</t>
+  </si>
+  <si>
+    <t>RobotRecaudos</t>
+  </si>
+  <si>
+    <t>RobotEpicor</t>
+  </si>
+  <si>
+    <t>Credenciales de acceso a Epicor</t>
+  </si>
+  <si>
+    <t>Proceso de RECO1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -141,6 +392,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -178,6 +447,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,18 +768,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z995"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="70.109375" customWidth="1"/>
-    <col min="3" max="3" width="68.5546875" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="3" max="3" width="68.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -541,34 +817,1558 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15" customHeight="1">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15" customHeight="1">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15" customHeight="1">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15" customHeight="1">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Desplegable!$B$2:$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Desplegable!$B$3:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Desplegable!$B$4:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Desplegable!$B$5:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Desplegable!$B$8:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Desplegable!$B$6:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Desplegable!$B$7:$C$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>$F$11:$F$12</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z994"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="3" max="3" width="89" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
         <v>26</v>
       </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>5000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>30000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>120000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1554,26 +3354,22 @@
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="63.5546875" customWidth="1"/>
-    <col min="3" max="3" width="89" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1581,10 +3377,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1610,1137 +3406,40 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>5000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>30000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>120000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="26" width="65.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3741,4 +4440,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -359,6 +359,81 @@
   </si>
   <si>
     <t>Proceso de RECO1</t>
+  </si>
+  <si>
+    <t>vStrOpcionCarteraExt</t>
+  </si>
+  <si>
+    <t>Aged Receivables</t>
+  </si>
+  <si>
+    <t>vStrRutaCarteraDolares</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\CarteraDolares.xlsx</t>
+  </si>
+  <si>
+    <t>vStrCarteraExterior</t>
+  </si>
+  <si>
+    <t>vStrFormatoExterior</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\CarteraExterior.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\Formatos\CarteraExterior.xlsx</t>
+  </si>
+  <si>
+    <t>vStrPathAGEEX</t>
+  </si>
+  <si>
+    <t>vStRutaAGEEX</t>
+  </si>
+  <si>
+    <t>vStRutaTEEX</t>
+  </si>
+  <si>
+    <t>O:\DISSEN\INSUMOS ROBOT RECAUDOS LEONISA\TEEX\</t>
+  </si>
+  <si>
+    <t>vstrAssetAGEEX</t>
+  </si>
+  <si>
+    <t>ArchivoAgeex</t>
+  </si>
+  <si>
+    <t>Carpeta AGEEX</t>
+  </si>
+  <si>
+    <t>vStrPathTEEX</t>
+  </si>
+  <si>
+    <t>Carpeta TEEX</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\AGEX\</t>
+  </si>
+  <si>
+    <t>O:\DISSEN\INSUMOS ROBOT RECAUDOS LEONISA\AGEX\</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\AppData\Local\Temp</t>
+  </si>
+  <si>
+    <t>vStrRutaArchivosTemporales</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\TEX\</t>
+  </si>
+  <si>
+    <t>RutaOcnas</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\OCNA\</t>
+  </si>
+  <si>
+    <t>O:\DISSEN\INSUMOS ROBOT RECAUDOS LEONISA\OCNA</t>
   </si>
 </sst>
 </file>
@@ -768,19 +843,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z993"/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="68.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -874,250 +949,312 @@
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
+        <v>129</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
-      <c r="A8" t="s">
-        <v>81</v>
+      <c r="A8" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
+        <v>133</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
+      <c r="A20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
         <v>79</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2063,12 +2200,15 @@
     <row r="991" ht="14.25" customHeight="1"/>
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$2:$C$2</xm:f>
@@ -2079,37 +2219,55 @@
           <x14:formula1>
             <xm:f>Desplegable!$B$3:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B7</xm:sqref>
+          <xm:sqref>B9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$4:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B8</xm:sqref>
+          <xm:sqref>B10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$5:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B9</xm:sqref>
+          <xm:sqref>B11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$8:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B13</xm:sqref>
+          <xm:sqref>B15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$6:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B10</xm:sqref>
+          <xm:sqref>B12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$7:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B12</xm:sqref>
+          <xm:sqref>B14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Desplegable!$B$9:$C$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Desplegable!$B$10:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Desplegable!$B$11:$C$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2119,20 +2277,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18">
       <c r="A1" s="8" t="s">
         <v>106</v>
       </c>
@@ -2218,6 +2376,39 @@
       </c>
       <c r="C8" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2239,12 +2430,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
     <col min="3" max="3" width="89" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3364,12 +3555,12 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3415,6 +3606,12 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4439,6 +4636,7 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4450,14 +4648,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -18,12 +18,12 @@
     <sheet name="Assets" sheetId="3" r:id="rId4"/>
     <sheet name="Credentials" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="165">
   <si>
     <t>Name</t>
   </si>
@@ -434,6 +434,90 @@
   </si>
   <si>
     <t>O:\DISSEN\INSUMOS ROBOT RECAUDOS LEONISA\OCNA</t>
+  </si>
+  <si>
+    <t>RutaPlantillasPREP</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\PREP\Plantillas a cargar\Plantillas generadas\</t>
+  </si>
+  <si>
+    <t>O:\DISSEN\INSUMOS ROBOT RECAUDOS LEONISA\PREP\Plantillas a cargar\Plantillas generadas\</t>
+  </si>
+  <si>
+    <t>Ruta de folder de plantillas a cargar en prepagadas</t>
+  </si>
+  <si>
+    <t>PlantillaPREP</t>
+  </si>
+  <si>
+    <t>PLANTILLA UNICA INTERFASE.xlsx</t>
+  </si>
+  <si>
+    <t>Nombre archivo plantilla a cargar en EPICOR Prepagadas</t>
+  </si>
+  <si>
+    <t>RutaFormatoPlantillaPREP</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\Formatos\PLANTILLA UNICA INTERFASE.xlsx</t>
+  </si>
+  <si>
+    <t>Formato de Plantillas PREP</t>
+  </si>
+  <si>
+    <t>RutaReportesNuevos</t>
+  </si>
+  <si>
+    <t>C:\Users\robtireleo\Documents\Recaudos\PREP\Plantillas a cargar\Reportes nuevos\</t>
+  </si>
+  <si>
+    <t>O:\DISSEN\INSUMOS ROBOT RECAUDOS LEONISA\PREP\Plantillas a cargar\Reportes nuevos\</t>
+  </si>
+  <si>
+    <t>Sura1</t>
+  </si>
+  <si>
+    <t>Sura Clasica</t>
+  </si>
+  <si>
+    <t>Prepagada Sura Clásica</t>
+  </si>
+  <si>
+    <t>Sura2</t>
+  </si>
+  <si>
+    <t>Sura Global</t>
+  </si>
+  <si>
+    <t>Sura3</t>
+  </si>
+  <si>
+    <t>Sura EPS PAC</t>
+  </si>
+  <si>
+    <t>Colpatria1</t>
+  </si>
+  <si>
+    <t>Axa Colpatria Original</t>
+  </si>
+  <si>
+    <t>TipoLog</t>
+  </si>
+  <si>
+    <t>Trace,Informativo,Warning,Error,Fatal</t>
+  </si>
+  <si>
+    <t>Colpatria2</t>
+  </si>
+  <si>
+    <t>Axa Colpatria Alterno</t>
+  </si>
+  <si>
+    <t>Coomeva</t>
+  </si>
+  <si>
+    <t>CasoEspCoomeva</t>
   </si>
 </sst>
 </file>
@@ -843,16 +927,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="2" max="2" width="84.21875" customWidth="1"/>
     <col min="3" max="3" width="68.5546875" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="5" max="26" width="8.6640625" customWidth="1"/>
@@ -925,352 +1009,448 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="15" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1">
+      <c r="A8" t="s">
         <v>120</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:26" ht="15" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
+        <v>134</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" t="s">
-        <v>113</v>
-      </c>
-    </row>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
+        <v>164</v>
+      </c>
+      <c r="B35">
+        <v>8305337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -2200,74 +2380,83 @@
     <row r="991" ht="14.25" customHeight="1"/>
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$2:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
+          <xm:sqref>B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$3:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B9</xm:sqref>
+          <xm:sqref>B10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$4:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B10</xm:sqref>
+          <xm:sqref>B11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$5:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B11</xm:sqref>
+          <xm:sqref>B12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$8:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B15</xm:sqref>
+          <xm:sqref>B16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$6:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B12</xm:sqref>
+          <xm:sqref>B13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$7:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B14</xm:sqref>
+          <xm:sqref>B15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$9:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B7</xm:sqref>
+          <xm:sqref>B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$10:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B8</xm:sqref>
+          <xm:sqref>B9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegable!$B$11:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>B35</xm:sqref>
+          <xm:sqref>B24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Desplegable!$B$12:$C$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B28</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Desplegable!$B$13:$C$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2277,17 +2466,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18">
@@ -2409,6 +2598,28 @@
       </c>
       <c r="C11" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3555,7 +3766,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -18,12 +18,12 @@
     <sheet name="Assets" sheetId="3" r:id="rId4"/>
     <sheet name="Credentials" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="169">
   <si>
     <t>Name</t>
   </si>
@@ -518,6 +518,18 @@
   </si>
   <si>
     <t>CasoEspCoomeva</t>
+  </si>
+  <si>
+    <t>Prepagadas</t>
+  </si>
+  <si>
+    <t>GrupoPREP</t>
+  </si>
+  <si>
+    <t>sergio.sanchez@fouriering.com</t>
+  </si>
+  <si>
+    <t>MailPREP</t>
   </si>
 </sst>
 </file>
@@ -929,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1317,7 +1329,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
         <v>150</v>
@@ -1378,7 +1397,7 @@
         <v>70</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
         <v>92</v>
@@ -3766,7 +3785,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3848,7 +3867,14 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
